--- a/NFLStats/RB/RB_aggregate.xlsx
+++ b/NFLStats/RB/RB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,150 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Mattison</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8.299999999999999</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>41.93333333333333</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>23.66666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Mattison</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3.633333333333333</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6.899999999999999</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>42.63333333333333</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>24.66666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Mattison</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-0.6333333333333337</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Austin Ekeler</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>47.86666666666667</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Austin Ekeler</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>8.566666666666666</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>49.13333333333333</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Austin Ekeler</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-0.1333333333333337</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1.266666666666659</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFLStats/RB/RB_aggregate.xlsx
+++ b/NFLStats/RB/RB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,222 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>6.066666666666667</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>49.03333333333333</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>57.05</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Travis Homer</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>-2.216666666666668</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>8.016666666666666</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Mike Boone</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Mike Boone</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Mike Boone</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>-2.333333333333334</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-2.433333333333334</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-1.899999999999999</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>-0.6666666666666665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>jamaalwilliams</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4.133333333333334</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>53.06666666666666</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>31.33333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>jamaalwilliams</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>3.466666666666667</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>46.86666666666667</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>31.66666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>jamaalwilliams</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>-0.666666666666667</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-1.433333333333334</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-6.199999999999996</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0.3333333333333357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
